--- a/biology/Botanique/Liste_des_espèces_du_genre_Utricularia/Liste_des_espèces_du_genre_Utricularia.xlsx
+++ b/biology/Botanique/Liste_des_espèces_du_genre_Utricularia/Liste_des_espèces_du_genre_Utricularia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Utricularia</t>
+          <t>Liste_des_espèces_du_genre_Utricularia</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Il existe environ 225 espèces de plantes du genre Utricularia, appartenant à la famille des Lentibulariaceae. C'est le genre le plus important de plantes carnivores et il a une distribution mondiale, n'étant absent que de l'Antarctique et des îles océaniques. Ce genre était considéré comme ayant 250 espèces jusqu'à ce que Peter Taylor ait réduit le nombre à 214 dans son étude exhaustive The Genus Utricularia: a taxonomic monograph, une monographie publiée par HMSO[Quoi ?] (1989)[1]. La classification de Taylor fut généralement admise, bien que sa division du genre en deux sous-genres fut bientôt[Quand ?] considérée comme obsolète. Les études de génétique moléculaire ont pour la plupart confirmé la classification de Taylor avec quelques modifications, mais réparti le genre en trois sous-genres. Cette liste suit la classification des sous-genres de Müller et Borsch (2005)[2], mise à jour avec de nouvelles informations provenant de Müller et al. (2006)[3].
+Il existe environ 225 espèces de plantes du genre Utricularia, appartenant à la famille des Lentibulariaceae. C'est le genre le plus important de plantes carnivores et il a une distribution mondiale, n'étant absent que de l'Antarctique et des îles océaniques. Ce genre était considéré comme ayant 250 espèces jusqu'à ce que Peter Taylor ait réduit le nombre à 214 dans son étude exhaustive The Genus Utricularia: a taxonomic monograph, une monographie publiée par HMSO[Quoi ?] (1989). La classification de Taylor fut généralement admise, bien que sa division du genre en deux sous-genres fut bientôt[Quand ?] considérée comme obsolète. Les études de génétique moléculaire ont pour la plupart confirmé la classification de Taylor avec quelques modifications, mais réparti le genre en trois sous-genres. Cette liste suit la classification des sous-genres de Müller et Borsch (2005), mise à jour avec de nouvelles informations provenant de Müller et al. (2006).
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Utricularia</t>
+          <t>Liste_des_espèces_du_genre_Utricularia</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,8 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Section Aranella
-Utricularia blanchetii
+          <t>Section Aranella</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Utricularia blanchetii
 Utricularia costata
 Utricularia fimbriata
 Utricularia laciniata
@@ -524,18 +541,154 @@
 Utricularia purpureocaerulea
 Utricularia rostrata
 Utricularia sandwithii
-Utricularia simulans
-Section Australes
-Utricularia delicatula
+Utricularia simulans</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_du_genre_Utricularia</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_du_genre_Utricularia</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Sous-genre Bivalvaria</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Section Australes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Utricularia delicatula
 Utricularia lateriflora
-Utricularia simplex
-Section Avesicarioides
-Utricularia rigida
-Utricularia tetraloba
-Section Benjaminia
-Utricularia nana
-Section Calpidisca
-Utricularia arenaria
+Utricularia simplex</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_du_genre_Utricularia</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_du_genre_Utricularia</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Sous-genre Bivalvaria</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Section Avesicarioides</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Utricularia rigida
+Utricularia tetraloba</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_du_genre_Utricularia</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_du_genre_Utricularia</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Sous-genre Bivalvaria</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Section Benjaminia</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Utricularia nana</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_du_genre_Utricularia</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_du_genre_Utricularia</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Sous-genre Bivalvaria</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Section Calpidisca</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Utricularia arenaria
 Utricularia bisquamata
 Utricularia firmula
 Utricularia livida
@@ -544,20 +697,190 @@
 Utricularia pentadactyla
 Utricularia sandersonii
 Utricularia troupinii
-Utricularia welwitschii
-Section Enskide
-Utricularia chrysantha
-Utricularia fulva
-Section Lloydia
-Utricularia pubescens
-Section Minutae
-Utricularia simmonsii
-Section Nigrescentes
-Utricularia bracteata
+Utricularia welwitschii</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_du_genre_Utricularia</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_du_genre_Utricularia</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Sous-genre Bivalvaria</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Section Enskide</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Utricularia chrysantha
+Utricularia fulva</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_du_genre_Utricularia</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_du_genre_Utricularia</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Sous-genre Bivalvaria</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Section Lloydia</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Utricularia pubescens</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_du_genre_Utricularia</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_du_genre_Utricularia</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Sous-genre Bivalvaria</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Section Minutae</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Utricularia simmonsii</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_du_genre_Utricularia</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_du_genre_Utricularia</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Sous-genre Bivalvaria</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Section Nigrescentes</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Utricularia bracteata
 Utricularia caerulea
-Utricularia warburgii
-Section Oligocista
-Utricularia adpressa
+Utricularia warburgii</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_du_genre_Utricularia</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_du_genre_Utricularia</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Sous-genre Bivalvaria</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Section Oligocista</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Utricularia adpressa
 Utricularia albocaerulea
 Utricularia andongensis
 Utricularia arcuata
@@ -597,9 +920,43 @@
 Utricularia tortilis
 Utricularia uliginosa
 Utricularia vitellina
-Utricularia wightiana
-Section Phyllaria
-Utricularia brachiata
+Utricularia wightiana</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_du_genre_Utricularia</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_du_genre_Utricularia</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Sous-genre Bivalvaria</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Section Phyllaria</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Utricularia brachiata
 Utricularia christopheri
 Utricularia corynephora
 Utricularia forrestii
@@ -611,41 +968,80 @@
 Utricularia pulchra
 Utricularia salwinensis
 Utricularia steenisii
-Utricularia striatula
-Section Stomoisia
-Utricularia cornuta
+Utricularia striatula</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_du_genre_Utricularia</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_du_genre_Utricularia</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Sous-genre Bivalvaria</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Section Stomoisia</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Utricularia cornuta
 Utricularia juncea</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Utricularia</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_du_genre_Utricularia</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_du_genre_Utricularia</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_du_genre_Utricularia</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Sous-genre Polypompholyx</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Section Pleiochasia
-Utricularia albiflora
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Section Pleiochasia</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Utricularia albiflora
 Utricularia antennifera
 Utricularia arnhemica
 Utricularia beaugleholei
@@ -678,53 +1074,262 @@
 Utricularia tubulata
 Utricularia uniflora
 Utricularia violacea
-Utricularia volubilis
-Section Polypompholyx
-Utricularia multifida
-Utricularia tenella
-Section Tridentaria
-Utricularia westonii</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Utricularia</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_du_genre_Utricularia</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+Utricularia volubilis</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_du_genre_Utricularia</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_du_genre_Utricularia</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Sous-genre Polypompholyx</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Section Polypompholyx</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Utricularia multifida
+Utricularia tenella</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_du_genre_Utricularia</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_du_genre_Utricularia</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Sous-genre Polypompholyx</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Section Tridentaria</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Utricularia westonii</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_du_genre_Utricularia</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_du_genre_Utricularia</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>Sous-genre Utricularia</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Section Avesicaria
-Utricularia neottioides
-Utricularia oliveriana
-Section Candollea
-Utricularia podadena
-Section Chelidon
-Utricularia mannii
-Section Choristothecae
-Utricularia choristotheca
-Utricularia determannii
-Section Foliosa
-Utricularia amethystina
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Section Avesicaria</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Utricularia neottioides
+Utricularia oliveriana</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_du_genre_Utricularia</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_du_genre_Utricularia</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Sous-genre Utricularia</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Section Candollea</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Utricularia podadena</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_du_genre_Utricularia</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_du_genre_Utricularia</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Sous-genre Utricularia</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Section Chelidon</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Utricularia mannii</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_du_genre_Utricularia</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_du_genre_Utricularia</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Sous-genre Utricularia</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Section Choristothecae</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Utricularia choristotheca
+Utricularia determannii</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_du_genre_Utricularia</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_du_genre_Utricularia</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Sous-genre Utricularia</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Section Foliosa</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Utricularia amethystina
 Utricularia calycifida
 Utricularia hintonii
 Utricularia hispida
@@ -735,30 +1340,302 @@
 Utricularia praelonga
 Utricularia schultesii
 Utricularia tricolor
-Utricularia tridentata
-Section Kamienskia
-Utricularia mangshanensis
-Utricularia peranomala
-Section Lecticula
-Utricularia resupinata
-Utricularia spruceana
-Section Martinia
-Utricularia tenuissima
-Section Meionula
-Utricularia geoffrayi
+Utricularia tridentata</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_du_genre_Utricularia</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_du_genre_Utricularia</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Sous-genre Utricularia</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Section Kamienskia</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Utricularia mangshanensis
+Utricularia peranomala</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_du_genre_Utricularia</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_du_genre_Utricularia</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Sous-genre Utricularia</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Section Lecticula</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Utricularia resupinata
+Utricularia spruceana</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_du_genre_Utricularia</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_du_genre_Utricularia</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Sous-genre Utricularia</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Section Martinia</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Utricularia tenuissima</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_du_genre_Utricularia</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_du_genre_Utricularia</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Sous-genre Utricularia</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Section Meionula</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Utricularia geoffrayi
 Utricularia hirta
-Utricularia minutissima
-Section Mirabiles
-Utricularia heterochroma
-Utricularia mirabilis
-Section Nelipus
-Utricularia biloba
+Utricularia minutissima</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_du_genre_Utricularia</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_du_genre_Utricularia</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Sous-genre Utricularia</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Section Mirabiles</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Utricularia heterochroma
+Utricularia mirabilis</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_du_genre_Utricularia</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_du_genre_Utricularia</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Sous-genre Utricularia</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Section Nelipus</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Utricularia biloba
 Utricularia leptoplectra
-Utricularia limosa
-Section Oliveria
-Utricularia appendiculata
-Section Orchidioides
-Utricularia alpina
+Utricularia limosa</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_du_genre_Utricularia</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_du_genre_Utricularia</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Sous-genre Utricularia</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Section Oliveria</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Utricularia appendiculata</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_du_genre_Utricularia</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_du_genre_Utricularia</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Sous-genre Utricularia</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Section Orchidioides</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Utricularia alpina
 Utricularia asplundii
 Utricularia buntingiana
 Utricularia campbelliana
@@ -771,9 +1648,43 @@
 Utricularia praetermissa
 Utricularia quelchii
 Utricularia reniformis
-Utricularia unifolia
-Section Setiscapella
-Utricularia flaccida
+Utricularia unifolia</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_du_genre_Utricularia</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_du_genre_Utricularia</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Sous-genre Utricularia</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Section Setiscapella</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Utricularia flaccida
 Utricularia nervosa
 Utricularia nigrescens
 Utricularia physoceras
@@ -781,17 +1692,153 @@
 Utricularia stanfieldii
 Utricularia subulata
 Utricularia trichophylla
-Utricularia triloba
-Section Sprucea
-Utricularia viscosa
-Section Steyermarkia
-Utricularia aureomaculata
+Utricularia triloba</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_du_genre_Utricularia</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_du_genre_Utricularia</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Sous-genre Utricularia</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Section Sprucea</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Utricularia viscosa</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_du_genre_Utricularia</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_du_genre_Utricularia</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Sous-genre Utricularia</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Section Steyermarkia</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Utricularia aureomaculata
 Utricularia cochleata
-Utricularia steyermarkii
-Section Stylotheca
-Utricularia guyanensis
-Section Utricularia
-Utricularia aurea
+Utricularia steyermarkii</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_du_genre_Utricularia</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_du_genre_Utricularia</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Sous-genre Utricularia</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Section Stylotheca</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Utricularia guyanensis</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_du_genre_Utricularia</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_du_genre_Utricularia</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Sous-genre Utricularia</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Section Utricularia</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Utricularia aurea
 Utricularia australis
 Utricularia benjaminiana
 Utricularia biovularioides
@@ -826,9 +1873,43 @@
 Utricularia striata
 Utricularia stygia
 Utricularia vulgaris
-Utricularia warmingii
-Section Vesiculina
-Utricularia cucullata
+Utricularia warmingii</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_du_genre_Utricularia</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_du_genre_Utricularia</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Sous-genre Utricularia</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Section Vesiculina</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Utricularia cucullata
 Utricularia myriocista
 Utricularia purpurea</t>
         </is>
